--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.5017</v>
+        <v>-7.446700000000002</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.126199999999998</v>
+        <v>6.235499999999996</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.155600000000001</v>
+        <v>-7.171899999999998</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.955400000000002</v>
+        <v>-7.792900000000002</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.210599999999999</v>
+        <v>6.742800000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.043800000000003</v>
+        <v>8.933499999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.454200000000007</v>
+        <v>-8.368000000000002</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.316400000000003</v>
+        <v>5.918900000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.703600000000002</v>
+        <v>-8.752599999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.242600000000001</v>
+        <v>-7.384499999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.707700000000003</v>
+        <v>8.7027</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.712300000000002</v>
+        <v>-7.768799999999995</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.257000000000001</v>
+        <v>-8.0763</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.110299999999997</v>
+        <v>-8.108499999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.548299999999998</v>
+        <v>-7.568300000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.192499999999997</v>
+        <v>-8.676699999999997</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.588899999999995</v>
+        <v>5.537399999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.257399999999997</v>
+        <v>-7.248899999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.448500000000001</v>
+        <v>-7.353599999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.4331</v>
+        <v>5.120300000000003</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.784000000000006</v>
+        <v>9.814500000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.895000000000005</v>
+        <v>-7.673000000000002</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.9436</v>
+        <v>6.022599999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.3908</v>
+        <v>5.1764</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.936499999999997</v>
+        <v>-8.894599999999992</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.269600000000001</v>
+        <v>6.133199999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.7791</v>
+        <v>-7.820999999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
